--- a/biology/Zoologie/Conothele/Conothele.xlsx
+++ b/biology/Zoologie/Conothele/Conothele.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conothele est un genre d'araignées mygalomorphes de la famille des Halonoproctidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conothele est un genre d'araignées mygalomorphes de la famille des Halonoproctidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Océanie, en Asie du Sud-Est, en Asie de l'Est, en Asie du Sud et aux Seychelles[1] ainsi qu'en Australie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Océanie, en Asie du Sud-Est, en Asie de l'Est, en Asie du Sud et aux Seychelles ainsi qu'en Australie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette araignée creuse des terriers généralement court (quelques centimètres) sur le sol plat, les escarpements des talus, dans l'accotement des rives et dans des milieux divers : déserts, forêts pluviales, mangroves...
 </t>
@@ -573,13 +589,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des araignées robustes, noires, avec une tête bombée. 
 Son groupe oculaire est situé sur une protubérance.
-Comme toutes les mygalomorphes (mygales), elles ont des chélicères qui se meuvent de haut en bas avec des crochets au repos parallèles entre eux et repliés sur eux-mêmes[2]. Les chélicères sont aussi en plus dotés d'une expansion épineuse destinée au fouissement (pour creuser plus facilement la terre et compacter les parois de la galerie)
+Comme toutes les mygalomorphes (mygales), elles ont des chélicères qui se meuvent de haut en bas avec des crochets au repos parallèles entre eux et repliés sur eux-mêmes. Les chélicères sont aussi en plus dotés d'une expansion épineuse destinée au fouissement (pour creuser plus facilement la terre et compacter les parois de la galerie)
 On observe une encoche en forme de selle sur les tibias de la troisième paire de pattes.
-Les juvéniles grimpent sur des buissons d'où ils se dispersent par voie aérienne, flottant dans l'air grâce à de petits fils de soie (dispersion par ballooning). Ceci explique sans doute la présence de ces araignées dans les îles[3].
+Les juvéniles grimpent sur des buissons d'où ils se dispersent par voie aérienne, flottant dans l'air grâce à de petits fils de soie (dispersion par ballooning). Ceci explique sans doute la présence de ces araignées dans les îles.
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.5, 09/09/2022)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.5, 09/09/2022) :
 Conothele arboricola Pocock, 1898
 Conothele baisha Liu, Xu, Zhang, Liu &amp; Li, 2019
 Conothele baiyunensis Xu, Xu &amp; Liu, 2017
@@ -673,10 +693,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Thorell en 1878 dans les Heteropodidae. Il est placé dans les Halonoproctidae par Godwin, Opatova, Garrison, Hamilton et Bond en 2018[5].
-Lechrictenus[6] a été placé en synonymie par Raven en 1985[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Thorell en 1878 dans les Heteropodidae. Il est placé dans les Halonoproctidae par Godwin, Opatova, Garrison, Hamilton et Bond en 2018.
+Lechrictenus a été placé en synonymie par Raven en 1985.
 </t>
         </is>
       </c>
@@ -705,7 +727,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Thorell, 1878 : « Studi sui ragni Malesi e Papuani. II. Ragni di Amboina raccolti Prof. O. Beccari. » Annali del Museo Civico di Storia Naturale di Genova, vol. 13, p. 1-317 (texte intégral).</t>
         </is>
